--- a/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Prévost_(dessinateur_de_botanique)/Jean-Louis_Prévost_(dessinateur_de_botanique).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Prévost_(dessinateur_de_botanique)/Jean-Louis_Prévost_(dessinateur_de_botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Louis_Pr%C3%A9vost_(dessinateur_de_botanique)</t>
+          <t>Jean-Louis_Prévost_(dessinateur_de_botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Robert Prévost, dit « Prévost le Jeune », né vers 1767 et mort en 1788 à Vanikoro est un botaniste et dessinateur français.
 Ses dessins ont illustré l'expédition de La Pérouse (1785-1788).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Louis_Pr%C3%A9vost_(dessinateur_de_botanique)</t>
+          <t>Jean-Louis_Prévost_(dessinateur_de_botanique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Robert fait partie de la seconde génération d'une fratrie de peintres de fleurs célèbres : trois des frères Prévost ont été identifiés : Jean-Jacques Prévost, baptisé le 1er juillet 1736, Guillaume, baptisé le 2 avril 1738 et Jean-Louis, baptisé le 25 septembre 1745. Ils étaient tous nés à Nointel près de L’Isle-Adam, où leur père, Jacques, était vigneron[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Robert fait partie de la seconde génération d'une fratrie de peintres de fleurs célèbres : trois des frères Prévost ont été identifiés : Jean-Jacques Prévost, baptisé le 1er juillet 1736, Guillaume, baptisé le 2 avril 1738 et Jean-Louis, baptisé le 25 septembre 1745. Ils étaient tous nés à Nointel près de L’Isle-Adam, où leur père, Jacques, était vigneron.
 Jean-Louis-Robert est le fils de Jean-Louis ; il a eu une sœur, Aimée-Louise.
 En 1785, Guillaume Prévost, dit « Prévost oncle », se porte volontaire comme « dessinateur pour la Botanique » de l'expédition de La Pérouse. Il est engagé pour assister le médecin La Martinière pour la botanique, l’entomologie et l’histoire naturelle avec 1 200 livres d’appointements par an et embarque à bord de L’Astrolabe commandée par Fleuriot de Langle.
-Son neveu, Jean-Louis-Robert Prévost, dit « Prévost le jeune », encore mineur, embarque à bord de La Boussole commandée par La Pérouse, en remplacement de son père, Jean-Louis Prévost, qui se considérait trop âgé pour cette aventure et ne voulait pas laisser son épouse Thérèse-Geneviève et sa fille Aimée-Louise-Thérèse âgée de 14 ans seules en France[2].
-Il se fait remarquer pendant le voyage par son zèle à dessiner, à bord comme à terre, oiseaux et coquilles, « plein d’ardeur et de bonne volonté[3] ».
+Son neveu, Jean-Louis-Robert Prévost, dit « Prévost le jeune », encore mineur, embarque à bord de La Boussole commandée par La Pérouse, en remplacement de son père, Jean-Louis Prévost, qui se considérait trop âgé pour cette aventure et ne voulait pas laisser son épouse Thérèse-Geneviève et sa fille Aimée-Louise-Thérèse âgée de 14 ans seules en France.
+Il se fait remarquer pendant le voyage par son zèle à dessiner, à bord comme à terre, oiseaux et coquilles, « plein d’ardeur et de bonne volonté ».
 Il disparaît en 1788 à Vanikoro dans le Pacifique, avec La Pérouse et tous les membres de l’expédition.
 Une partie des dessins des Prévost, oncle et neveu, sont parvenus en France grâce à Barthélemy de Lesseps, débarqué au Kamtchatka le 29 septembre 1787 et remis à la Cour de Versailles 17 octobre 1788[Note 1].
 Le père du jeune Jean-Louis-Robert et frère de Guillaume demanda le 26 avril 1789 au directeur général des ports et arsenaux de la Marine, Charles-Pierre de Fleurieu à toucher la moitié du traitement de son fils comme il en avait été convenu en 1785 ; on lui répondit que son fils « sera[it] probablement ici dans le mois de juillet ». Il se vit attribuer à la manufacture des Gobelins, rue Mouffetard, un logement qu’il occupa pendant une trentaine d’années ; il est mort en 1827.
